--- a/문서/프로젝트 진행 달력.xlsx
+++ b/문서/프로젝트 진행 달력.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F6B13D-7F1F-4BE1-8173-B2F96A7E9724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C741649B-68C1-4C1D-87A8-74DD82020AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>메모</t>
   </si>
@@ -209,6 +209,24 @@
   </si>
   <si>
     <t>프로젝트 종료일</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티와 시뮬레이션의 컴퓨터 분리 완료</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티에서 DB 내려받기 시도
+시나리오3 디버깅</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티에서 DB 내려받기 성공
+시나리오3 디버깅</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 시현을 위해 파라미터 값 조정 완료</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1186,6 +1204,12 @@
     <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -1202,12 +1226,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1839,10 +1857,10 @@
         <v>토요일</v>
       </c>
       <c r="I2" s="50"/>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="73"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3"/>
@@ -2052,10 +2070,10 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2064,10 +2082,10 @@
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2362,19 +2380,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2653,19 +2671,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2944,19 +2962,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3284,21 +3302,21 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3349,7 +3367,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3429,10 +3447,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="58" customHeight="1">
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="69" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="51"/>
@@ -3506,10 +3524,18 @@
     </row>
     <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="C8" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="68" t="s">
         <v>26</v>
       </c>
@@ -3596,19 +3622,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3908,19 +3934,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4200,19 +4226,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4492,19 +4518,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4784,19 +4810,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -5077,19 +5103,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5369,19 +5395,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5424,6 +5450,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5644,25 +5688,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5679,22 +5723,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/문서/프로젝트 진행 달력.xlsx
+++ b/문서/프로젝트 진행 달력.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C741649B-68C1-4C1D-87A8-74DD82020AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3536FCBF-ABC7-4B5A-8D59-F175A12A63A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,11 +189,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>유니티 하단 슬라이더 제작
-깃허브 숙지</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>시나리오2 프로토타입 완성
 코드중복 정리중</t>
     <phoneticPr fontId="27" type="noConversion"/>
@@ -227,6 +222,12 @@
   </si>
   <si>
     <t>유니티 시현을 위해 파라미터 값 조정 완료</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 하단 슬라
+이더 제작
+깃허브 숙지</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1204,12 +1205,6 @@
     <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -1227,6 +1222,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1857,10 +1858,10 @@
         <v>토요일</v>
       </c>
       <c r="I2" s="50"/>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="75"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3"/>
@@ -2070,10 +2071,10 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2082,10 +2083,10 @@
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2380,19 +2381,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2671,19 +2672,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2962,19 +2963,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3302,21 +3303,21 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3367,7 +3368,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3447,10 +3448,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="58" customHeight="1">
-      <c r="F4" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="69" t="s">
+      <c r="F4" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="76" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="51"/>
@@ -3482,19 +3483,19 @@
     <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="60"/>
       <c r="C6" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="E6" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="60"/>
     </row>
@@ -3525,16 +3526,16 @@
     <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="61"/>
       <c r="C8" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="E8" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="68" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="68" t="s">
         <v>26</v>
@@ -3604,7 +3605,7 @@
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="61"/>
@@ -3622,19 +3623,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3934,19 +3935,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4226,19 +4227,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4518,19 +4519,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4810,19 +4811,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -5103,19 +5104,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5395,19 +5396,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5450,24 +5451,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5688,25 +5671,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5723,4 +5706,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/문서/프로젝트 진행 달력.xlsx
+++ b/문서/프로젝트 진행 달력.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3536FCBF-ABC7-4B5A-8D59-F175A12A63A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3BE45-EDBE-483C-B43C-82DB03F8CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>메모</t>
   </si>
@@ -228,6 +228,14 @@
     <t>유니티 하단 슬라
 이더 제작
 깃허브 숙지</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 문서화 작업 시작</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 마무리</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1205,6 +1213,12 @@
     <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -1222,12 +1236,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1858,10 +1866,10 @@
         <v>토요일</v>
       </c>
       <c r="I2" s="50"/>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="73"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3"/>
@@ -2071,10 +2079,10 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2083,10 +2091,10 @@
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2381,19 +2389,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2672,19 +2680,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2963,19 +2971,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3026,7 +3034,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3303,21 +3311,21 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3352,7 +3360,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3368,7 +3376,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3448,10 +3456,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="58" customHeight="1">
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="70" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="51"/>
@@ -3528,7 +3536,7 @@
       <c r="C8" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="69" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="68" t="s">
@@ -3568,13 +3576,21 @@
     </row>
     <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="C10" s="60" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>37</v>
+      </c>
       <c r="H10" s="60"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
@@ -3603,7 +3619,9 @@
     </row>
     <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="61" t="s">
         <v>30</v>
       </c>
@@ -3623,19 +3641,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3935,19 +3953,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4227,19 +4245,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4519,19 +4537,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4811,19 +4829,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -5104,19 +5122,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5396,19 +5414,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
     </row>
     <row r="14" spans="2:8" ht="58" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5451,6 +5469,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5671,25 +5707,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5706,22 +5749,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/문서/프로젝트 진행 달력.xlsx
+++ b/문서/프로젝트 진행 달력.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3BE45-EDBE-483C-B43C-82DB03F8CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E367DE48-3980-473C-A995-BB979BF3439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3376,7 +3376,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3451,7 +3451,7 @@
       <c r="G3" s="61">
         <v>44988</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="66">
         <v>44989</v>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       <c r="H4" s="51"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B5" s="60">
+      <c r="B5" s="67">
         <f t="array" ref="B5:H5">요일및주+DATE(달력연도,3,1)-WEEKDAY(DATE(달력연도,3,1),(주시작="월요일")+1)+8</f>
         <v>44990</v>
       </c>
@@ -3484,12 +3484,12 @@
       <c r="G5" s="60">
         <v>44995</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="67">
         <v>44996</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="58" customHeight="1">
-      <c r="B6" s="60"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="60" t="s">
         <v>27</v>
       </c>
@@ -3505,10 +3505,10 @@
       <c r="G6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B7" s="61">
+      <c r="B7" s="66">
         <f t="array" ref="B7:H7">요일및주+DATE(달력연도,3,1)-WEEKDAY(DATE(달력연도,3,1),(주시작="월요일")+1)+15</f>
         <v>44997</v>
       </c>
@@ -3527,12 +3527,12 @@
       <c r="G7" s="61">
         <v>45002</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="66">
         <v>45003</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="58" customHeight="1">
-      <c r="B8" s="61"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="68" t="s">
         <v>32</v>
       </c>
@@ -3548,10 +3548,10 @@
       <c r="G8" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="61"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B9" s="60">
+      <c r="B9" s="67">
         <f t="array" ref="B9:H9">요일및주+DATE(달력연도,3,1)-WEEKDAY(DATE(달력연도,3,1),(주시작="월요일")+1)+22</f>
         <v>45004</v>
       </c>
@@ -3570,12 +3570,12 @@
       <c r="G9" s="60">
         <v>45009</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="67">
         <v>45010</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="58" customHeight="1">
-      <c r="B10" s="60"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="60" t="s">
         <v>36</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="H10" s="60"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B11" s="61">
+      <c r="B11" s="66">
         <f t="array" ref="B11:H11">요일및주+DATE(달력연도,3,1)-WEEKDAY(DATE(달력연도,3,1),(주시작="월요일")+1)+29</f>
         <v>45011</v>
       </c>
@@ -5469,24 +5469,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5707,10 +5689,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5733,20 +5744,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/문서/프로젝트 진행 달력.xlsx
+++ b/문서/프로젝트 진행 달력.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E367DE48-3980-473C-A995-BB979BF3439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2573207F-F136-4A16-BF15-9F4543760201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>메모</t>
   </si>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>멘토링 5회차</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>유니티 최적화</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -235,7 +231,22 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 마무리</t>
+    <t>프로젝트 문서화
+프로젝트 마무리</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 준비
+프로젝트 마무리</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 5회차
+(유니티)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 17일부터 면접 등 프로젝트 외 일정으로 인해 프로젝트 참여 시간이 적었음.</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -3376,7 +3387,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E13" sqref="E13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3457,10 +3468,10 @@
     </row>
     <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="F4" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="51"/>
     </row>
@@ -3491,19 +3502,19 @@
     <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="E6" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="67"/>
     </row>
@@ -3534,19 +3545,19 @@
     <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="66"/>
       <c r="C8" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="E8" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" s="68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="66"/>
     </row>
@@ -3577,19 +3588,19 @@
     <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="60"/>
     </row>
@@ -3619,11 +3630,11 @@
     </row>
     <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="60" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="61"/>
@@ -3641,7 +3652,9 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="71" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
       <c r="H13" s="72"/>
@@ -5469,6 +5482,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5689,39 +5720,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5744,9 +5746,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/문서/프로젝트 진행 달력.xlsx
+++ b/문서/프로젝트 진행 달력.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2573207F-F136-4A16-BF15-9F4543760201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E9C46-0D0F-4A1A-9D6C-7C795F6DD2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>메모</t>
   </si>
@@ -247,6 +247,11 @@
   </si>
   <si>
     <t>3월 17일부터 면접 등 프로젝트 외 일정으로 인해 프로젝트 참여 시간이 적었음.</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 문서화
+4번 시나리오  제작</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -3387,7 +3392,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:H14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3594,7 +3599,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F10" s="60" t="s">
         <v>36</v>
@@ -5482,24 +5487,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5720,10 +5707,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5746,20 +5762,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/문서/프로젝트 진행 달력.xlsx
+++ b/문서/프로젝트 진행 달력.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E9C46-0D0F-4A1A-9D6C-7C795F6DD2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0412D16-C845-4715-9E85-41949666C563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>메모</t>
   </si>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 문서화 작업 시작</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 문서화
 프로젝트 마무리</t>
     <phoneticPr fontId="27" type="noConversion"/>
@@ -250,8 +246,17 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 문서화
-4번 시나리오  제작</t>
+    <t>시뮬레이션 데이터 분석</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석
+프로젝트 문서화
+프로젝트 마무리</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 시나리오  제작, 유니티 설비 정보 표시</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -3593,19 +3598,19 @@
     <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="60" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="60"/>
     </row>
@@ -3636,7 +3641,7 @@
     <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="61"/>
       <c r="C12" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="61" t="s">
         <v>29</v>
@@ -3658,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
@@ -5487,6 +5492,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5707,39 +5730,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5762,9 +5756,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/문서/프로젝트 진행 달력.xlsx
+++ b/문서/프로젝트 진행 달력.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0412D16-C845-4715-9E85-41949666C563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECCE5C5-6F8B-4782-B971-898FBFB28FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3397,7 +3397,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="61"/>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="68" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -5492,24 +5492,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5730,10 +5712,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5756,20 +5767,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>